--- a/Bitcoin.xlsx
+++ b/Bitcoin.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2309"/>
+  <dimension ref="A1:H2330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58898,7 +58898,7 @@
         <v>7610.899901999999</v>
       </c>
       <c r="G2250" t="n">
-        <v>595402750</v>
+        <v>595404848</v>
       </c>
       <c r="H2250" t="s">
         <v>8</v>
@@ -59146,19 +59146,19 @@
         <v>6152.950195</v>
       </c>
       <c r="C2260" t="n">
-        <v>6184.459961</v>
+        <v>6488.549805</v>
       </c>
       <c r="D2260" t="n">
         <v>6014.259765999999</v>
       </c>
       <c r="E2260" t="n">
-        <v>6091.140136999999</v>
+        <v>6242.540039</v>
       </c>
       <c r="F2260" t="n">
-        <v>6091.140136999999</v>
+        <v>6242.540039</v>
       </c>
       <c r="G2260" t="n">
-        <v>242399960</v>
+        <v>545722619</v>
       </c>
       <c r="H2260" t="s">
         <v>8</v>
@@ -59169,22 +59169,22 @@
         <v>43323</v>
       </c>
       <c r="B2261" t="n">
-        <v>6091.140136999999</v>
+        <v>6242.529785</v>
       </c>
       <c r="C2261" t="n">
-        <v>6091.140136999999</v>
+        <v>6483.390136999999</v>
       </c>
       <c r="D2261" t="n">
-        <v>6091.140136999999</v>
+        <v>6176.890136999999</v>
       </c>
       <c r="E2261" t="n">
-        <v>6091.140136999999</v>
+        <v>6322.919922</v>
       </c>
       <c r="F2261" t="n">
-        <v>6091.140136999999</v>
+        <v>6322.919922</v>
       </c>
       <c r="G2261" t="n">
-        <v>0</v>
+        <v>366460108</v>
       </c>
       <c r="H2261" t="s">
         <v>8</v>
@@ -60414,7 +60414,7 @@
     </row>
     <row r="2309" spans="1:8">
       <c r="A2309" s="2" t="n">
-        <v>43372</v>
+        <v>43371</v>
       </c>
       <c r="B2309" t="n">
         <v>6635.399902</v>
@@ -60426,15 +60426,561 @@
         <v>6474.22998</v>
       </c>
       <c r="E2309" t="n">
-        <v>6562.040039</v>
+        <v>6603.75</v>
       </c>
       <c r="F2309" t="n">
-        <v>6562.040039</v>
+        <v>6603.75</v>
       </c>
       <c r="G2309" t="n">
-        <v>136479264</v>
+        <v>245055396</v>
       </c>
       <c r="H2309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:8">
+      <c r="A2310" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="B2310" t="n">
+        <v>6603.75</v>
+      </c>
+      <c r="C2310" t="n">
+        <v>6741.959961</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>6543.680176</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>6623.709961</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>6623.709961</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>174302164</v>
+      </c>
+      <c r="H2310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:8">
+      <c r="A2311" s="2" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B2311" t="n">
+        <v>6623.819824</v>
+      </c>
+      <c r="C2311" t="n">
+        <v>6662.600098</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>6510.540039</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>6594.97998</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>6594.97998</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>256959931</v>
+      </c>
+      <c r="H2311" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:8">
+      <c r="A2312" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B2312" t="n">
+        <v>6594.97998</v>
+      </c>
+      <c r="C2312" t="n">
+        <v>6618.950195</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>6478.040039</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>6525.470215</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>6525.470215</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>267166277</v>
+      </c>
+      <c r="H2312" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:8">
+      <c r="A2313" s="2" t="n">
+        <v>43375</v>
+      </c>
+      <c r="B2313" t="n">
+        <v>6525.459961</v>
+      </c>
+      <c r="C2313" t="n">
+        <v>6537.069824</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>6428.97998</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>6492.259765999999</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>6492.259765999999</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>306385346</v>
+      </c>
+      <c r="H2313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:8">
+      <c r="A2314" s="2" t="n">
+        <v>43376</v>
+      </c>
+      <c r="B2314" t="n">
+        <v>6492.609863000001</v>
+      </c>
+      <c r="C2314" t="n">
+        <v>6622.319824</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>6486.859863000001</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>6579.790039</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>6579.790039</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>277614018</v>
+      </c>
+      <c r="H2314" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:8">
+      <c r="A2315" s="2" t="n">
+        <v>43377</v>
+      </c>
+      <c r="B2315" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C2315" t="n">
+        <v>6683.549805</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>6546.97998</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>6632.870117</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>6632.870117</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>262562344</v>
+      </c>
+      <c r="H2315" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:8">
+      <c r="A2316" s="2" t="n">
+        <v>43378</v>
+      </c>
+      <c r="B2316" t="n">
+        <v>6632.879883</v>
+      </c>
+      <c r="C2316" t="n">
+        <v>6637.080078</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>6563.25</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>6589.939941</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>6589.939941</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>162722103</v>
+      </c>
+      <c r="H2316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:8">
+      <c r="A2317" s="2" t="n">
+        <v>43379</v>
+      </c>
+      <c r="B2317" t="n">
+        <v>6589.939941</v>
+      </c>
+      <c r="C2317" t="n">
+        <v>6622.490234000001</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>6535.02002</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>6601.149902</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>6601.149902</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>179378859</v>
+      </c>
+      <c r="H2317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:8">
+      <c r="A2318" s="2" t="n">
+        <v>43380</v>
+      </c>
+      <c r="B2318" t="n">
+        <v>6601.459961</v>
+      </c>
+      <c r="C2318" t="n">
+        <v>6698.310059</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>6565.009765999999</v>
+      </c>
+      <c r="E2318" t="n">
+        <v>6650.069824</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>6650.069824</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>313507433</v>
+      </c>
+      <c r="H2318" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:8">
+      <c r="A2319" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="B2319" t="n">
+        <v>6650.069824</v>
+      </c>
+      <c r="C2319" t="n">
+        <v>6657</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>6589.390136999999</v>
+      </c>
+      <c r="E2319" t="n">
+        <v>6631.790039</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>6631.790039</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>213976678</v>
+      </c>
+      <c r="H2319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:8">
+      <c r="A2320" s="2" t="n">
+        <v>43382</v>
+      </c>
+      <c r="B2320" t="n">
+        <v>6631.790039</v>
+      </c>
+      <c r="C2320" t="n">
+        <v>6633.220215</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>6487.859863000001</v>
+      </c>
+      <c r="E2320" t="n">
+        <v>6581.069824</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>6581.069824</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>323664963</v>
+      </c>
+      <c r="H2320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:8">
+      <c r="A2321" s="2" t="n">
+        <v>43383</v>
+      </c>
+      <c r="B2321" t="n">
+        <v>6581.069824</v>
+      </c>
+      <c r="C2321" t="n">
+        <v>6581.589844</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>6171.950195</v>
+      </c>
+      <c r="E2321" t="n">
+        <v>6209.470215</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>6209.470215</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>654924117</v>
+      </c>
+      <c r="H2321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:8">
+      <c r="A2322" s="2" t="n">
+        <v>43384</v>
+      </c>
+      <c r="B2322" t="n">
+        <v>6209.470215</v>
+      </c>
+      <c r="C2322" t="n">
+        <v>6296.560059</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>6173.859863000001</v>
+      </c>
+      <c r="E2322" t="n">
+        <v>6250.850098</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>6250.850098</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>289840137</v>
+      </c>
+      <c r="H2322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:8">
+      <c r="A2323" s="2" t="n">
+        <v>43385</v>
+      </c>
+      <c r="B2323" t="n">
+        <v>6252.100098</v>
+      </c>
+      <c r="C2323" t="n">
+        <v>6280.72998</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>6238.919922</v>
+      </c>
+      <c r="E2323" t="n">
+        <v>6267.27002</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>6267.27002</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>137705035</v>
+      </c>
+      <c r="H2323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:8">
+      <c r="A2324" s="2" t="n">
+        <v>43386</v>
+      </c>
+      <c r="B2324" t="n">
+        <v>6267.27002</v>
+      </c>
+      <c r="C2324" t="n">
+        <v>6346.560059</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>6247.169922</v>
+      </c>
+      <c r="E2324" t="n">
+        <v>6277.72998</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>6277.72998</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>215422888</v>
+      </c>
+      <c r="H2324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:8">
+      <c r="A2325" s="2" t="n">
+        <v>43387</v>
+      </c>
+      <c r="B2325" t="n">
+        <v>6277.72998</v>
+      </c>
+      <c r="C2325" t="n">
+        <v>7234.830078</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>6244.77002</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>6612.359863000001</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>6612.359863000001</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>1190524168</v>
+      </c>
+      <c r="H2325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:8">
+      <c r="A2326" s="2" t="n">
+        <v>43388</v>
+      </c>
+      <c r="B2326" t="n">
+        <v>6612.689941</v>
+      </c>
+      <c r="C2326" t="n">
+        <v>6724.910156</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>6545.540039</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>6583.049805</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>6583.049805</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>324232509</v>
+      </c>
+      <c r="H2326" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:8">
+      <c r="A2327" s="2" t="n">
+        <v>43389</v>
+      </c>
+      <c r="B2327" t="n">
+        <v>6583.049805</v>
+      </c>
+      <c r="C2327" t="n">
+        <v>6589.200195</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>6511.600098</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>6574.52002</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>6574.52002</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>220418636</v>
+      </c>
+      <c r="H2327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:8">
+      <c r="A2328" s="2" t="n">
+        <v>43390</v>
+      </c>
+      <c r="B2328" t="n">
+        <v>6576.399902</v>
+      </c>
+      <c r="C2328" t="n">
+        <v>6616.27002</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>6445.049805</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>6488.720215</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>6488.720215</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>331761115</v>
+      </c>
+      <c r="H2328" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:8">
+      <c r="A2329" s="2" t="n">
+        <v>43391</v>
+      </c>
+      <c r="B2329" t="n">
+        <v>6489.370117</v>
+      </c>
+      <c r="C2329" t="n">
+        <v>6503.089844</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>6449.359863000001</v>
+      </c>
+      <c r="E2329" t="n">
+        <v>6469.279785</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>6469.279785</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>237855085</v>
+      </c>
+      <c r="H2329" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:8">
+      <c r="A2330" s="2" t="n">
+        <v>43393</v>
+      </c>
+      <c r="B2330" t="n">
+        <v>6469.279785</v>
+      </c>
+      <c r="C2330" t="n">
+        <v>6514.629883</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>6457.339844</v>
+      </c>
+      <c r="E2330" t="n">
+        <v>6484.879883</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>6484.879883</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>81389240</v>
+      </c>
+      <c r="H2330" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Bitcoin.xlsx
+++ b/Bitcoin.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2330"/>
+  <dimension ref="A1:H2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60960,27 +60960,53 @@
     </row>
     <row r="2330" spans="1:8">
       <c r="A2330" s="2" t="n">
-        <v>43393</v>
+        <v>43392</v>
       </c>
       <c r="B2330" t="n">
         <v>6469.279785</v>
       </c>
       <c r="C2330" t="n">
-        <v>6514.629883</v>
+        <v>6645.200195</v>
       </c>
       <c r="D2330" t="n">
-        <v>6457.339844</v>
+        <v>6395.450195</v>
       </c>
       <c r="E2330" t="n">
-        <v>6484.879883</v>
+        <v>6490.560059</v>
       </c>
       <c r="F2330" t="n">
-        <v>6484.879883</v>
+        <v>6490.560059</v>
       </c>
       <c r="G2330" t="n">
-        <v>81389240</v>
+        <v>127185847</v>
       </c>
       <c r="H2330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:8">
+      <c r="A2331" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B2331" t="n">
+        <v>6490.560059</v>
+      </c>
+      <c r="C2331" t="n">
+        <v>6537.850098</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>6474.319824</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>6531.689941</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>6531.689941</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>42746564</v>
+      </c>
+      <c r="H2331" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Bitcoin.xlsx
+++ b/Bitcoin.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2331"/>
+  <dimension ref="A1:H2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60986,27 +60986,157 @@
     </row>
     <row r="2331" spans="1:8">
       <c r="A2331" s="2" t="n">
+        <v>43393</v>
+      </c>
+      <c r="B2331" t="n">
+        <v>6490.600098</v>
+      </c>
+      <c r="C2331" t="n">
+        <v>6557.390136999999</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>6474.470215</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>6509.870117</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>6509.870117</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>105283929</v>
+      </c>
+      <c r="H2331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:8">
+      <c r="A2332" s="2" t="n">
         <v>43394</v>
       </c>
-      <c r="B2331" t="n">
-        <v>6490.560059</v>
-      </c>
-      <c r="C2331" t="n">
-        <v>6537.850098</v>
-      </c>
-      <c r="D2331" t="n">
-        <v>6474.319824</v>
-      </c>
-      <c r="E2331" t="n">
-        <v>6531.689941</v>
-      </c>
-      <c r="F2331" t="n">
-        <v>6531.689941</v>
-      </c>
-      <c r="G2331" t="n">
-        <v>42746564</v>
-      </c>
-      <c r="H2331" t="s">
+      <c r="B2332" t="n">
+        <v>6509.870117</v>
+      </c>
+      <c r="C2332" t="n">
+        <v>6531.22998</v>
+      </c>
+      <c r="D2332" t="n">
+        <v>6460.379883</v>
+      </c>
+      <c r="E2332" t="n">
+        <v>6483.22998</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>6483.22998</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>202766914</v>
+      </c>
+      <c r="H2332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:8">
+      <c r="A2333" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="B2333" t="n">
+        <v>6484.319824</v>
+      </c>
+      <c r="C2333" t="n">
+        <v>6496.200195</v>
+      </c>
+      <c r="D2333" t="n">
+        <v>6438.990234000001</v>
+      </c>
+      <c r="E2333" t="n">
+        <v>6470.220215</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>6470.220215</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>220913293</v>
+      </c>
+      <c r="H2333" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:8">
+      <c r="A2334" s="2" t="n">
+        <v>43396</v>
+      </c>
+      <c r="B2334" t="n">
+        <v>6470.629883</v>
+      </c>
+      <c r="C2334" t="n">
+        <v>6538.350098</v>
+      </c>
+      <c r="D2334" t="n">
+        <v>6465.72998</v>
+      </c>
+      <c r="E2334" t="n">
+        <v>6476.25</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>6476.25</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>222068131</v>
+      </c>
+      <c r="H2334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:8">
+      <c r="A2335" s="2" t="n">
+        <v>43397</v>
+      </c>
+      <c r="B2335" t="n">
+        <v>6476.52002</v>
+      </c>
+      <c r="C2335" t="n">
+        <v>6497.899902</v>
+      </c>
+      <c r="D2335" t="n">
+        <v>6432.299805</v>
+      </c>
+      <c r="E2335" t="n">
+        <v>6462.77002</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>6462.77002</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>231214963</v>
+      </c>
+      <c r="H2335" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:8">
+      <c r="A2336" s="2" t="n">
+        <v>43399</v>
+      </c>
+      <c r="B2336" t="n">
+        <v>6462.77002</v>
+      </c>
+      <c r="C2336" t="n">
+        <v>6514</v>
+      </c>
+      <c r="D2336" t="n">
+        <v>6441.810059</v>
+      </c>
+      <c r="E2336" t="n">
+        <v>6459.72998</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>6459.72998</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>196485088</v>
+      </c>
+      <c r="H2336" t="s">
         <v>8</v>
       </c>
     </row>
